--- a/pred/stereo/tropb_2_stereo.xlsx
+++ b/pred/stereo/tropb_2_stereo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,23 +491,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['116', '121', '160', '162', '166', '185', '194', '199', '202', '210', '233', '238', '255', '261', '266', '275', '289', '298', '320', '338', '340', '343', '385', '389', '408', '410', '438', '449', '471', '472', '89']</t>
+          <t>['111', '163', '166', '184', '195', '204', '209', '231', '268', '272', '279', '320', '32', '357', '373', '393', '403', '408', '455', '456', '473', '496', '72', '76']</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>-52.23</v>
+        <v>-48.82</v>
       </c>
       <c r="E2" t="n">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="F2" t="n">
-        <v>-26.32</v>
+        <v>-21.16</v>
       </c>
       <c r="G2" t="n">
-        <v>15.43</v>
+        <v>15.3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>110.67</v>
+        <v>112.09</v>
       </c>
       <c r="J2" t="n">
-        <v>5.781542017666289</v>
+        <v>5.325231801029317</v>
       </c>
       <c r="K2" t="n">
-        <v>4.58708589411622</v>
+        <v>4.753537209279002</v>
       </c>
     </row>
     <row r="3">
@@ -530,23 +530,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['105', '106', '132', '146', '153', '176', '196', '207', '222', '249', '259', '296', '301', '341', '356', '360', '378', '85']</t>
+          <t>['126', '12', '143', '145', '162', '164', '167', '168', '169', '170', '174', '189', '216', '222', '224', '254', '264', '276', '301', '317', '321', '338', '341', '391', '484', '48', '58', '63', '77', '84', '86']</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>-50.55</v>
+        <v>-46.75</v>
       </c>
       <c r="E3" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F3" t="n">
-        <v>-22.22</v>
+        <v>-14.53</v>
       </c>
       <c r="G3" t="n">
-        <v>24.09</v>
+        <v>20.26</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>108.2</v>
+        <v>123.89</v>
       </c>
       <c r="J3" t="n">
-        <v>5.683485081661548</v>
+        <v>4.730958191335375</v>
       </c>
       <c r="K3" t="n">
-        <v>4.820821921622908</v>
+        <v>3.206388310856934</v>
       </c>
     </row>
     <row r="4">
@@ -569,23 +569,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['123', '228', '241', '246', '284', '297', '306', '371', '375', '403', '420', '428', '445', '461', '470', '482']</t>
+          <t>['312', '313', '315', '332', '369', '394', '415', '453', '485']</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>-42</v>
+        <v>-34.46</v>
       </c>
       <c r="E4" t="n">
-        <v>420</v>
+        <v>332</v>
       </c>
       <c r="F4" t="n">
-        <v>-29</v>
+        <v>-13.83</v>
       </c>
       <c r="G4" t="n">
-        <v>10.68</v>
+        <v>10.85</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>116.33</v>
+        <v>112.22</v>
       </c>
       <c r="J4" t="n">
-        <v>5.553343954918748</v>
+        <v>5.447691190414753</v>
       </c>
       <c r="K4" t="n">
-        <v>4.595473098604754</v>
+        <v>4.523740156109767</v>
       </c>
     </row>
     <row r="5">
@@ -608,23 +608,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['131', '140', '147', '164', '173', '188', '280', '304', '336', '344', '373', '380', '390', '413', '415', '459', '474', '55', '66', '78', '84', '94', '98']</t>
+          <t>['336', '439', '475', '494', '4']</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>-40.47</v>
+        <v>-34.36</v>
       </c>
       <c r="E5" t="n">
-        <v>344</v>
+        <v>439</v>
       </c>
       <c r="F5" t="n">
-        <v>-13.77</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>21.18</v>
+        <v>26.77</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>132.26</v>
+        <v>112.24</v>
       </c>
       <c r="J5" t="n">
-        <v>4.74204822921101</v>
+        <v>5.139110176690448</v>
       </c>
       <c r="K5" t="n">
-        <v>3.12878267062447</v>
+        <v>6.29300079453356</v>
       </c>
     </row>
     <row r="6">
@@ -647,37 +647,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['315', '376']</t>
+          <t>['176', '196', '211', '242', '260', '305', '329', '359', '368', '37', '407', '43', '74']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>-35.26</v>
+        <v>-34.1</v>
       </c>
       <c r="E6" t="n">
-        <v>376</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>-25.86</v>
+        <v>-9.24</v>
       </c>
       <c r="G6" t="n">
-        <v>9.390000000000001</v>
+        <v>17.13</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>48.58</v>
+        <v>108.37</v>
       </c>
       <c r="J6" t="n">
-        <v>6.074435245438082</v>
+        <v>5.428218975400501</v>
       </c>
       <c r="K6" t="n">
-        <v>11.82925906386364</v>
+        <v>4.594739927351713</v>
       </c>
     </row>
     <row r="7">
@@ -686,23 +686,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['268', '281', '335', '424', '427', '481']</t>
+          <t>['102', '108', '132', '135', '152', '172', '212', '259', '284', '30', '330', '371', '374', '388', '395', '418', '444', '446', '464', '80', '91']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>-34.92</v>
+        <v>-32.16</v>
       </c>
       <c r="E7" t="n">
-        <v>424</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>-23.15</v>
+        <v>15.62</v>
       </c>
       <c r="G7" t="n">
-        <v>11.25</v>
+        <v>20.96</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>117.62</v>
+        <v>108.62</v>
       </c>
       <c r="J7" t="n">
-        <v>5.246444603690373</v>
+        <v>5.496578648280645</v>
       </c>
       <c r="K7" t="n">
-        <v>3.151543272747499</v>
+        <v>4.84305884746407</v>
       </c>
     </row>
     <row r="8">
@@ -725,23 +725,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['155', '163', '181', '215', '273', '323', '59', '91']</t>
+          <t>['205']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-31.49</v>
+        <v>-28.56</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="F8" t="n">
-        <v>-9.220000000000001</v>
+        <v>-28.56</v>
       </c>
       <c r="G8" t="n">
-        <v>10.89</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>119.43</v>
+        <v>122.72</v>
       </c>
       <c r="J8" t="n">
-        <v>5.229377945212746</v>
+        <v>4.677315528272646</v>
       </c>
       <c r="K8" t="n">
-        <v>5.613885107481273</v>
+        <v>3.250592561364778</v>
       </c>
     </row>
     <row r="9">
@@ -764,37 +764,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['374']</t>
+          <t>['114', '144', '150', '227', '290', '327', '354', '445', '45', '95', '99']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.64</v>
+        <v>-21.08</v>
       </c>
       <c r="E9" t="n">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="F9" t="n">
-        <v>-30.64</v>
+        <v>-2.62</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10.04</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>58.77</v>
+        <v>109.33</v>
       </c>
       <c r="J9" t="n">
-        <v>6.055732802519462</v>
+        <v>4.873338647316494</v>
       </c>
       <c r="K9" t="n">
-        <v>12.00914210091628</v>
+        <v>3.050252120727072</v>
       </c>
     </row>
     <row r="10">
@@ -803,37 +803,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['247', '307', '358']</t>
+          <t>['129', '298', '334', '337', '412', '441', '497']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>-29.54</v>
+        <v>-20.45</v>
       </c>
       <c r="E10" t="n">
-        <v>247</v>
+        <v>441</v>
       </c>
       <c r="F10" t="n">
-        <v>-23.1</v>
+        <v>23.28</v>
       </c>
       <c r="G10" t="n">
-        <v>6.76</v>
+        <v>27.93</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>105.5</v>
+        <v>50.56</v>
       </c>
       <c r="J10" t="n">
-        <v>5.317164506365691</v>
+        <v>5.707774724542174</v>
       </c>
       <c r="K10" t="n">
-        <v>6.247332870913795</v>
+        <v>11.03269545487412</v>
       </c>
     </row>
     <row r="11">
@@ -842,23 +842,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['110', '125', '168', '209', '251', '270', '294', '326', '381', '456', '480', '490', '491', '499', '62']</t>
+          <t>['100', '109', '110', '112', '118', '11', '127', '139', '153', '155', '165', '17', '182', '191', '20', '210', '213', '22', '23', '246', '24', '253', '257', '263', '267', '270', '28', '299', '304', '310', '34', '36', '375', '3', '40', '459', '468', '47', '50', '51', '52', '54', '56', '60', '66', '7', '82', '83', '8', '9']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>-24.17</v>
+        <v>-18.8</v>
       </c>
       <c r="E11" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F11" t="n">
-        <v>4.82</v>
+        <v>23.24</v>
       </c>
       <c r="G11" t="n">
-        <v>19.84</v>
+        <v>19.32</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>129.67</v>
+        <v>107.83</v>
       </c>
       <c r="J11" t="n">
-        <v>4.738266827713727</v>
+        <v>4.789103573824262</v>
       </c>
       <c r="K11" t="n">
-        <v>3.00369122913791</v>
+        <v>3.219760705394116</v>
       </c>
     </row>
     <row r="12">
@@ -881,37 +881,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['485']</t>
+          <t>['175', '220', '226', '234', '255', '289', '294', '331', '364', '399', '450', '469', '500']</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>-23.81</v>
+        <v>-18.79</v>
       </c>
       <c r="E12" t="n">
-        <v>485</v>
+        <v>234</v>
       </c>
       <c r="F12" t="n">
-        <v>-23.81</v>
+        <v>6.78</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>12.06</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>128.66</v>
+        <v>63.67</v>
       </c>
       <c r="J12" t="n">
-        <v>5.517306911077217</v>
+        <v>3.933959901956809</v>
       </c>
       <c r="K12" t="n">
-        <v>9.510487526935723</v>
+        <v>7.219282720603208</v>
       </c>
     </row>
     <row r="13">
@@ -920,37 +920,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['101', '118', '172', '179', '197', '212', '225', '250', '269', '272', '276', '277', '279', '295', '300', '327', '328', '354', '361', '396', '400', '443', '77']</t>
+          <t>['198', '490']</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-18.99</v>
+        <v>-18.62</v>
       </c>
       <c r="E13" t="n">
-        <v>361</v>
+        <v>198</v>
       </c>
       <c r="F13" t="n">
-        <v>4.06</v>
+        <v>-10.31</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>131.46</v>
+        <v>78.55</v>
       </c>
       <c r="J13" t="n">
-        <v>4.215871299782112</v>
+        <v>5.632086464071337</v>
       </c>
       <c r="K13" t="n">
-        <v>2.89569300859052</v>
+        <v>11.90385034348131</v>
       </c>
     </row>
     <row r="14">
@@ -959,37 +959,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['175', '293', '419']</t>
+          <t>['324', '358', '363', '478']</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.66</v>
+        <v>-17.03</v>
       </c>
       <c r="E14" t="n">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="F14" t="n">
-        <v>2.85</v>
+        <v>30.21</v>
       </c>
       <c r="G14" t="n">
-        <v>24.12</v>
+        <v>44.05</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>133.6</v>
+        <v>56.62</v>
       </c>
       <c r="J14" t="n">
-        <v>4.850766945461684</v>
+        <v>5.844864429914663</v>
       </c>
       <c r="K14" t="n">
-        <v>3.044846465751601</v>
+        <v>12.1447720439702</v>
       </c>
     </row>
     <row r="15">
@@ -998,37 +998,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['331']</t>
+          <t>['142', '244', '280', '381', '458', '70']</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>-16.29</v>
+        <v>-14.49</v>
       </c>
       <c r="E15" t="n">
-        <v>331</v>
+        <v>70</v>
       </c>
       <c r="F15" t="n">
-        <v>-16.29</v>
+        <v>19.39</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>24.47</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>53.34</v>
+        <v>109.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.337562547922839</v>
+        <v>5.221860886929955</v>
       </c>
       <c r="K15" t="n">
-        <v>7.106873925995877</v>
+        <v>6.422745674553834</v>
       </c>
     </row>
     <row r="16">
@@ -1037,23 +1037,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['136', '169', '193', '211', '245', '291', '308', '309', '357', '392', '40', '414', '435', '478', '58']</t>
+          <t>['392', '435']</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-14.39</v>
+        <v>-12.95</v>
       </c>
       <c r="E16" t="n">
         <v>435</v>
       </c>
       <c r="F16" t="n">
-        <v>8.43</v>
+        <v>1.53</v>
       </c>
       <c r="G16" t="n">
-        <v>18.57</v>
+        <v>14.48</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1061,13 +1061,13 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>67.25</v>
+        <v>77.42</v>
       </c>
       <c r="J16" t="n">
-        <v>4.90662602809627</v>
+        <v>5.664840637562503</v>
       </c>
       <c r="K16" t="n">
-        <v>3.268098223738081</v>
+        <v>11.85135760155773</v>
       </c>
     </row>
     <row r="17">
@@ -1076,37 +1076,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['398']</t>
+          <t>['159', '287', '356', '378', '379']</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>-14.13</v>
+        <v>-12.07</v>
       </c>
       <c r="E17" t="n">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="F17" t="n">
-        <v>-14.13</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>26.33</v>
+        <v>125.23</v>
       </c>
       <c r="J17" t="n">
-        <v>4.411175152325027</v>
+        <v>4.737741434265824</v>
       </c>
       <c r="K17" t="n">
-        <v>6.362021219706833</v>
+        <v>3.017887506187073</v>
       </c>
     </row>
     <row r="18">
@@ -1115,23 +1115,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['129', '314', '492', '494']</t>
+          <t>['410']</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.69</v>
+        <v>-11.67</v>
       </c>
       <c r="E18" t="n">
-        <v>494</v>
+        <v>410</v>
       </c>
       <c r="F18" t="n">
-        <v>-6.27</v>
+        <v>-11.67</v>
       </c>
       <c r="G18" t="n">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>47.01</v>
+        <v>26.25</v>
       </c>
       <c r="J18" t="n">
-        <v>6.997733799347514</v>
+        <v>4.05362524319219</v>
       </c>
       <c r="K18" t="n">
-        <v>12.95758542321832</v>
+        <v>6.760134983859423</v>
       </c>
     </row>
     <row r="19">
@@ -1154,23 +1154,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['102', '103', '104', '108', '120', '133', '134', '135', '137', '149', '14', '150', '158', '159', '167', '16', '183', '18', '198', '203', '205', '20', '216', '217', '219', '22', '231', '240', '252', '258', '25', '274', '286', '290', '29', '302', '305', '30', '325', '348', '35', '384', '405', '43', '440', '447', '44', '452', '46', '50', '51', '57', '71', '72', '76', '81', '87', '88', '90']</t>
+          <t>['488']</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.13</v>
+        <v>-7.28</v>
       </c>
       <c r="E19" t="n">
-        <v>274</v>
+        <v>488</v>
       </c>
       <c r="F19" t="n">
-        <v>18.18</v>
+        <v>-7.28</v>
       </c>
       <c r="G19" t="n">
-        <v>24.05</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1178,13 +1178,13 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>61.77</v>
+        <v>62.07</v>
       </c>
       <c r="J19" t="n">
-        <v>5.047432137599609</v>
+        <v>4.171093462567019</v>
       </c>
       <c r="K19" t="n">
-        <v>2.963058554939473</v>
+        <v>7.567424264569814</v>
       </c>
     </row>
     <row r="20">
@@ -1193,20 +1193,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['383']</t>
+          <t>['482']</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-11.72</v>
+        <v>-7.19</v>
       </c>
       <c r="E20" t="n">
-        <v>383</v>
+        <v>482</v>
       </c>
       <c r="F20" t="n">
-        <v>-11.72</v>
+        <v>-7.19</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>111.51</v>
+        <v>110.76</v>
       </c>
       <c r="J20" t="n">
-        <v>5.470798880214397</v>
+        <v>6.814981193918982</v>
       </c>
       <c r="K20" t="n">
-        <v>5.601850230057922</v>
+        <v>9.462623050719078</v>
       </c>
     </row>
     <row r="21">
@@ -1232,23 +1232,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['191', '263', '355', '422']</t>
+          <t>['177', '230', '26', '271', '275', '302', '344', '432', '437', '68', '71', '73', '87', '92']</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.57</v>
+        <v>-6.98</v>
       </c>
       <c r="E21" t="n">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F21" t="n">
-        <v>5.96</v>
+        <v>18.02</v>
       </c>
       <c r="G21" t="n">
-        <v>13.99</v>
+        <v>13.61</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>63.04</v>
+        <v>50.29</v>
       </c>
       <c r="J21" t="n">
-        <v>5.88206950080028</v>
+        <v>5.414613465390842</v>
       </c>
       <c r="K21" t="n">
-        <v>12.05397154468186</v>
+        <v>3.15442054900738</v>
       </c>
     </row>
     <row r="22">
@@ -1271,37 +1271,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['260']</t>
+          <t>['122', '133', '297', '397', '400', '466', '481', '487']</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>-10.42</v>
+        <v>-2.74</v>
       </c>
       <c r="E22" t="n">
-        <v>260</v>
+        <v>397</v>
       </c>
       <c r="F22" t="n">
-        <v>-10.42</v>
+        <v>18.09</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>26.43</v>
+        <v>129.55</v>
       </c>
       <c r="J22" t="n">
-        <v>4.237935688275491</v>
+        <v>5.021922637754574</v>
       </c>
       <c r="K22" t="n">
-        <v>6.060491811726173</v>
+        <v>3.105231231325616</v>
       </c>
     </row>
     <row r="23">
@@ -1310,23 +1310,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['115', '171', '229', '318', '437', '442']</t>
+          <t>['353', '365', '424']</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.3</v>
+        <v>-2.72</v>
       </c>
       <c r="E23" t="n">
-        <v>437</v>
+        <v>353</v>
       </c>
       <c r="F23" t="n">
-        <v>27.72</v>
+        <v>17.98</v>
       </c>
       <c r="G23" t="n">
-        <v>26.13</v>
+        <v>16.22</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>99.33</v>
+        <v>106.11</v>
       </c>
       <c r="J23" t="n">
-        <v>5.94547960853539</v>
+        <v>5.028236977514165</v>
       </c>
       <c r="K23" t="n">
-        <v>3.146423048479014</v>
+        <v>5.860456040275367</v>
       </c>
     </row>
     <row r="24">
@@ -1349,23 +1349,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['271', '349']</t>
+          <t>['499']</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.25</v>
+        <v>-0.57</v>
       </c>
       <c r="E24" t="n">
-        <v>271</v>
+        <v>499</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.33</v>
+        <v>-0.57</v>
       </c>
       <c r="G24" t="n">
-        <v>5.93</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>94.38</v>
+        <v>121.13</v>
       </c>
       <c r="J24" t="n">
-        <v>5.56856580297305</v>
+        <v>3.915399625132764</v>
       </c>
       <c r="K24" t="n">
-        <v>12.01572390661503</v>
+        <v>8.047433255392678</v>
       </c>
     </row>
     <row r="25">
@@ -1388,37 +1388,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['213', '324', '352']</t>
+          <t>['495']</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-9.029999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="E25" t="n">
-        <v>324</v>
+        <v>495</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>1.68</v>
       </c>
       <c r="G25" t="n">
-        <v>14.45</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>85.23999999999999</v>
+        <v>147.85</v>
       </c>
       <c r="J25" t="n">
-        <v>5.027091312202762</v>
+        <v>5.608417542099613</v>
       </c>
       <c r="K25" t="n">
-        <v>3.40119111488902</v>
+        <v>11.18305906270731</v>
       </c>
     </row>
     <row r="26">
@@ -1427,23 +1427,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['119', '227', '460', '70']</t>
+          <t>['425']</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.73</v>
+        <v>1.72</v>
       </c>
       <c r="E26" t="n">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="F26" t="n">
-        <v>17.12</v>
+        <v>1.72</v>
       </c>
       <c r="G26" t="n">
-        <v>19.68</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>96.59</v>
+        <v>118.57</v>
       </c>
       <c r="J26" t="n">
-        <v>5.304620531158826</v>
+        <v>5.436830808927022</v>
       </c>
       <c r="K26" t="n">
-        <v>6.23307484312518</v>
+        <v>4.675702086318161</v>
       </c>
     </row>
     <row r="27">
@@ -1466,23 +1466,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['278', '369', '372']</t>
+          <t>['156']</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.79</v>
+        <v>2.47</v>
       </c>
       <c r="E27" t="n">
-        <v>369</v>
+        <v>156</v>
       </c>
       <c r="F27" t="n">
-        <v>13.2</v>
+        <v>2.47</v>
       </c>
       <c r="G27" t="n">
-        <v>19.19</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1490,13 +1490,13 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>109.22</v>
+        <v>128.96</v>
       </c>
       <c r="J27" t="n">
-        <v>5.536151431587592</v>
+        <v>5.798661810790348</v>
       </c>
       <c r="K27" t="n">
-        <v>5.498710848917228</v>
+        <v>3.141389978974274</v>
       </c>
     </row>
     <row r="28">
@@ -1505,23 +1505,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['254', '345', '439', '448', '64']</t>
+          <t>['422']</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.66</v>
+        <v>2.85</v>
       </c>
       <c r="E28" t="n">
-        <v>64</v>
+        <v>422</v>
       </c>
       <c r="F28" t="n">
-        <v>5.52</v>
+        <v>2.85</v>
       </c>
       <c r="G28" t="n">
-        <v>12.61</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>133.05</v>
+        <v>133.28</v>
       </c>
       <c r="J28" t="n">
-        <v>5.642536688911663</v>
+        <v>4.877676347506104</v>
       </c>
       <c r="K28" t="n">
-        <v>3.064309057520143</v>
+        <v>2.890793143758299</v>
       </c>
     </row>
     <row r="29">
@@ -1544,23 +1544,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['148', '152', '165', '237', '310', '370', '393', '457', '464', '488']</t>
+          <t>['295']</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.1</v>
+        <v>3.5</v>
       </c>
       <c r="E29" t="n">
-        <v>488</v>
+        <v>295</v>
       </c>
       <c r="F29" t="n">
-        <v>12.29</v>
+        <v>3.5</v>
       </c>
       <c r="G29" t="n">
-        <v>13.74</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1568,13 +1568,13 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>102.06</v>
+        <v>102.74</v>
       </c>
       <c r="J29" t="n">
-        <v>4.285812901246363</v>
+        <v>4.820871953055294</v>
       </c>
       <c r="K29" t="n">
-        <v>7.751959365218576</v>
+        <v>5.130751699312683</v>
       </c>
     </row>
     <row r="30">
@@ -1583,37 +1583,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['454']</t>
+          <t>['115', '181', '236', '266', '274', '277', '306', '308', '319', '345', '479']</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>-5.28</v>
+        <v>4.91</v>
       </c>
       <c r="E30" t="n">
-        <v>454</v>
+        <v>345</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.28</v>
+        <v>46.34</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>31.15</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>30.35</v>
+        <v>106.9</v>
       </c>
       <c r="J30" t="n">
-        <v>6.739158125826852</v>
+        <v>4.145975412668169</v>
       </c>
       <c r="K30" t="n">
-        <v>11.54811369878215</v>
+        <v>7.492639721753611</v>
       </c>
     </row>
     <row r="31">
@@ -1622,20 +1622,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['242']</t>
+          <t>['194']</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.57</v>
+        <v>6.93</v>
       </c>
       <c r="E31" t="n">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.57</v>
+        <v>6.93</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>114.19</v>
+        <v>112.71</v>
       </c>
       <c r="J31" t="n">
-        <v>5.314762048544889</v>
+        <v>6.397332218214404</v>
       </c>
       <c r="K31" t="n">
-        <v>3.145591200394608</v>
+        <v>8.12799397145446</v>
       </c>
     </row>
     <row r="32">
@@ -1661,37 +1661,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['382']</t>
+          <t>['221', '449']</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.76</v>
+        <v>7.73</v>
       </c>
       <c r="E32" t="n">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.76</v>
+        <v>11.84</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>130.83</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>5.966554189644072</v>
+        <v>5.478868976833278</v>
       </c>
       <c r="K32" t="n">
-        <v>10.12558778540782</v>
+        <v>12.01401960211486</v>
       </c>
     </row>
     <row r="33">
@@ -1700,37 +1700,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['426']</t>
+          <t>['248', '256', '377', '423']</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.68</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>426</v>
+        <v>256</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.68</v>
+        <v>31.56</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>21.07</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>54.19</v>
+        <v>135.15</v>
       </c>
       <c r="J33" t="n">
-        <v>3.527794046813769</v>
+        <v>5.161056569963882</v>
       </c>
       <c r="K33" t="n">
-        <v>7.755674374288802</v>
+        <v>3.337576366167526</v>
       </c>
     </row>
     <row r="34">
@@ -1739,37 +1739,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['122', '174', '248', '322', '397', '54', '86']</t>
+          <t>['125', '235', '457']</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.57</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>86</v>
+        <v>457</v>
       </c>
       <c r="F34" t="n">
-        <v>43.28</v>
+        <v>1289.6</v>
       </c>
       <c r="G34" t="n">
-        <v>36.88</v>
+        <v>905.49</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>134.1</v>
+        <v>60.96</v>
       </c>
       <c r="J34" t="n">
-        <v>5.631072270746259</v>
+        <v>3.430618849985748</v>
       </c>
       <c r="K34" t="n">
-        <v>2.84880062482442</v>
+        <v>7.715761077171845</v>
       </c>
     </row>
     <row r="35">
@@ -1778,23 +1778,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['467']</t>
+          <t>['141', '318', '361', '436', '75', '96', '97']</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>1.67</v>
+        <v>11.09</v>
       </c>
       <c r="E35" t="n">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F35" t="n">
-        <v>1.67</v>
+        <v>36.8</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>20.65</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1802,13 +1802,13 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>50.29</v>
+        <v>40.65</v>
       </c>
       <c r="J35" t="n">
-        <v>4.287691691436816</v>
+        <v>5.552518527659316</v>
       </c>
       <c r="K35" t="n">
-        <v>7.070756819464237</v>
+        <v>2.804408850364015</v>
       </c>
     </row>
     <row r="36">
@@ -1817,23 +1817,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['455']</t>
+          <t>['243', '311', '398', '438', '486']</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>1.77</v>
+        <v>14.45</v>
       </c>
       <c r="E36" t="n">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="F36" t="n">
-        <v>1.77</v>
+        <v>19.72</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>7.12</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>47.54</v>
+        <v>58.7</v>
       </c>
       <c r="J36" t="n">
-        <v>6.487358587975514</v>
+        <v>5.729822255675356</v>
       </c>
       <c r="K36" t="n">
-        <v>11.88012504142949</v>
+        <v>9.594871859488279</v>
       </c>
     </row>
     <row r="37">
@@ -1856,37 +1856,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['95']</t>
+          <t>['300', '314', '90']</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>4.27</v>
+        <v>16.56</v>
       </c>
       <c r="E37" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F37" t="n">
-        <v>4.27</v>
+        <v>44.21</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.19</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>105.63</v>
+        <v>74.72</v>
       </c>
       <c r="J37" t="n">
-        <v>5.144813322410158</v>
+        <v>5.957572964945799</v>
       </c>
       <c r="K37" t="n">
-        <v>5.204718628321802</v>
+        <v>3.415996926228127</v>
       </c>
     </row>
     <row r="38">
@@ -1895,37 +1895,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['346']</t>
+          <t>['404']</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>5.35</v>
+        <v>17.28</v>
       </c>
       <c r="E38" t="n">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="F38" t="n">
-        <v>5.35</v>
+        <v>17.28</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>101.88</v>
+        <v>52.47</v>
       </c>
       <c r="J38" t="n">
-        <v>6.044828617951724</v>
+        <v>5.832367036195331</v>
       </c>
       <c r="K38" t="n">
-        <v>5.153873688789817</v>
+        <v>10.62538865171529</v>
       </c>
     </row>
     <row r="39">
@@ -1934,23 +1934,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['178', '476']</t>
+          <t>['483']</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>6.31</v>
+        <v>17.33</v>
       </c>
       <c r="E39" t="n">
-        <v>178</v>
+        <v>483</v>
       </c>
       <c r="F39" t="n">
-        <v>12.9</v>
+        <v>17.33</v>
       </c>
       <c r="G39" t="n">
-        <v>6.59</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1958,13 +1958,13 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>138.61</v>
+        <v>136.22</v>
       </c>
       <c r="J39" t="n">
-        <v>4.670637794580444</v>
+        <v>4.384028342769245</v>
       </c>
       <c r="K39" t="n">
-        <v>3.161984503440841</v>
+        <v>8.253310002659536</v>
       </c>
     </row>
     <row r="40">
@@ -1973,20 +1973,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['469']</t>
+          <t>['492']</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>9.699999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="E40" t="n">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="F40" t="n">
-        <v>9.699999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>131.24</v>
+        <v>143.07</v>
       </c>
       <c r="J40" t="n">
-        <v>4.980929109706175</v>
+        <v>4.22224321363681</v>
       </c>
       <c r="K40" t="n">
-        <v>9.466191472815238</v>
+        <v>3.622409971276029</v>
       </c>
     </row>
     <row r="41">
@@ -2012,37 +2012,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['434']</t>
+          <t>['190', '421', '426', '472']</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>13.86</v>
+        <v>17.6</v>
       </c>
       <c r="E41" t="n">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="F41" t="n">
-        <v>13.86</v>
+        <v>34.2</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>16.26</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>103.42</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>5.570274330986675</v>
+        <v>5.68536452800755</v>
       </c>
       <c r="K41" t="n">
-        <v>6.188696631763428</v>
+        <v>12.31755905202001</v>
       </c>
     </row>
     <row r="42">
@@ -2051,37 +2051,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['347']</t>
+          <t>['360', '406', '463', '474']</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>14.09</v>
+        <v>17.66</v>
       </c>
       <c r="E42" t="n">
-        <v>347</v>
+        <v>474</v>
       </c>
       <c r="F42" t="n">
-        <v>14.09</v>
+        <v>35.55</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>12.78</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>50.47</v>
+        <v>117.86</v>
       </c>
       <c r="J42" t="n">
-        <v>5.512690727877312</v>
+        <v>4.883205567272888</v>
       </c>
       <c r="K42" t="n">
-        <v>9.463534804712245</v>
+        <v>10.98409636702082</v>
       </c>
     </row>
     <row r="43">
@@ -2090,37 +2090,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['128', '13', '143', '156', '15', '170', '239', '23', '265', '33', '37', '48', '4', '65', '74', '99']</t>
+          <t>['447']</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>16.09</v>
+        <v>19.05</v>
       </c>
       <c r="E43" t="n">
-        <v>265</v>
+        <v>447</v>
       </c>
       <c r="F43" t="n">
-        <v>33.98</v>
+        <v>19.05</v>
       </c>
       <c r="G43" t="n">
-        <v>20.15</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>75.97</v>
+        <v>147.48</v>
       </c>
       <c r="J43" t="n">
-        <v>5.246088330890943</v>
+        <v>3.943652388746418</v>
       </c>
       <c r="K43" t="n">
-        <v>2.959482049278217</v>
+        <v>6.521138627571107</v>
       </c>
     </row>
     <row r="44">
@@ -2129,37 +2129,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['339']</t>
+          <t>['252', '350', '41', '49', '59']</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>18.25</v>
+        <v>19.42</v>
       </c>
       <c r="E44" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F44" t="n">
-        <v>18.25</v>
+        <v>30.89</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>109.81</v>
+        <v>46.28</v>
       </c>
       <c r="J44" t="n">
-        <v>6.012543375039782</v>
+        <v>6.089495332797553</v>
       </c>
       <c r="K44" t="n">
-        <v>3.319746225240715</v>
+        <v>3.376340918805444</v>
       </c>
     </row>
     <row r="45">
@@ -2168,23 +2168,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['450']</t>
+          <t>['171', '223', '323', '382']</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>18.61</v>
+        <v>23.63</v>
       </c>
       <c r="E45" t="n">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="F45" t="n">
-        <v>18.61</v>
+        <v>40.61</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.05</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>52.11</v>
+        <v>33.03</v>
       </c>
       <c r="J45" t="n">
-        <v>4.790292140978284</v>
+        <v>5.927135085902017</v>
       </c>
       <c r="K45" t="n">
-        <v>5.59388559053544</v>
+        <v>9.341181349272693</v>
       </c>
     </row>
     <row r="46">
@@ -2207,37 +2207,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['141']</t>
+          <t>['489']</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>20.77</v>
+        <v>23.82</v>
       </c>
       <c r="E46" t="n">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="F46" t="n">
-        <v>20.77</v>
+        <v>23.82</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>120.5</v>
+        <v>43.76</v>
       </c>
       <c r="J46" t="n">
-        <v>4.960716095854849</v>
+        <v>4.542914512216374</v>
       </c>
       <c r="K46" t="n">
-        <v>2.984991457274212</v>
+        <v>5.767666685931152</v>
       </c>
     </row>
     <row r="47">
@@ -2246,23 +2246,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['226', '342', '39', '431']</t>
+          <t>['149', '372', '81']</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>21.36</v>
+        <v>24.61</v>
       </c>
       <c r="E47" t="n">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="F47" t="n">
-        <v>31.74</v>
+        <v>41.88</v>
       </c>
       <c r="G47" t="n">
-        <v>6.7</v>
+        <v>15.28</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>32.58</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>6.679021828968425</v>
+        <v>4.679999389499351</v>
       </c>
       <c r="K47" t="n">
-        <v>3.702192188420263</v>
+        <v>3.918496650502588</v>
       </c>
     </row>
     <row r="48">
@@ -2285,37 +2285,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['423']</t>
+          <t>['106', '116', '119', '120', '147', '154', '199', '19', '1', '207', '21', '225', '228', '25', '27', '285', '322', '38', '409', '417', '430', '431', '46', '498', '65', '67', '6', '85', '93']</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>21.61</v>
+        <v>25.66</v>
       </c>
       <c r="E48" t="n">
-        <v>423</v>
+        <v>285</v>
       </c>
       <c r="F48" t="n">
-        <v>21.61</v>
+        <v>62.76</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>23.89</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>135.18</v>
+        <v>35.88</v>
       </c>
       <c r="J48" t="n">
-        <v>4.074737865614101</v>
+        <v>5.488416603750718</v>
       </c>
       <c r="K48" t="n">
-        <v>2.835332079316287</v>
+        <v>2.776592696093547</v>
       </c>
     </row>
     <row r="49">
@@ -2324,23 +2324,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['111', '112', '124', '130', '139', '187', '206', '214', '235', '257', '333', '353', '362', '406', '411', '418', '466', '486', '498', '68', '73']</t>
+          <t>['113', '121', '130', '137', '157', '160', '247', '273', '278', '370', '387', '416', '433', '460', '94']</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>22.35</v>
+        <v>27.57</v>
       </c>
       <c r="E49" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F49" t="n">
-        <v>49.36</v>
+        <v>62.25</v>
       </c>
       <c r="G49" t="n">
-        <v>14.05</v>
+        <v>16.97</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2348,13 +2348,13 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>77.39</v>
+        <v>55.01</v>
       </c>
       <c r="J49" t="n">
-        <v>4.251761534100551</v>
+        <v>4.768705456902728</v>
       </c>
       <c r="K49" t="n">
-        <v>6.382710239388909</v>
+        <v>5.024218944273827</v>
       </c>
     </row>
     <row r="50">
@@ -2363,23 +2363,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['264']</t>
+          <t>['307', '429']</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>22.49</v>
+        <v>27.96</v>
       </c>
       <c r="E50" t="n">
-        <v>264</v>
+        <v>429</v>
       </c>
       <c r="F50" t="n">
-        <v>22.49</v>
+        <v>51.97</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>24.01</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2387,13 +2387,13 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>108.41</v>
+        <v>105.85</v>
       </c>
       <c r="J50" t="n">
-        <v>4.563524917590496</v>
+        <v>5.626205255003461</v>
       </c>
       <c r="K50" t="n">
-        <v>10.17143200341033</v>
+        <v>5.432183907048802</v>
       </c>
     </row>
     <row r="51">
@@ -2402,37 +2402,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['407', '429', '484']</t>
+          <t>['140', '192', '208', '214', '238', '239', '283', '380', '385', '471']</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>23.34</v>
+        <v>29.09</v>
       </c>
       <c r="E51" t="n">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="F51" t="n">
-        <v>37.01</v>
+        <v>62.58</v>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>20.93</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>122.36</v>
+        <v>62.43</v>
       </c>
       <c r="J51" t="n">
-        <v>4.551274170101003</v>
+        <v>4.648247800219446</v>
       </c>
       <c r="K51" t="n">
-        <v>9.72318594906011</v>
+        <v>4.144617352663576</v>
       </c>
     </row>
     <row r="52">
@@ -2441,23 +2441,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['24', '287', '60', '79', '92', '93']</t>
+          <t>['451']</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>23.61</v>
+        <v>36.02</v>
       </c>
       <c r="E52" t="n">
-        <v>93</v>
+        <v>451</v>
       </c>
       <c r="F52" t="n">
-        <v>34.31</v>
+        <v>36.02</v>
       </c>
       <c r="G52" t="n">
-        <v>9.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2465,13 +2465,13 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>124.6</v>
+        <v>116.39</v>
       </c>
       <c r="J52" t="n">
-        <v>6.248556421041492</v>
+        <v>4.261527095264504</v>
       </c>
       <c r="K52" t="n">
-        <v>2.991602580557783</v>
+        <v>9.8760374138619</v>
       </c>
     </row>
     <row r="53">
@@ -2480,37 +2480,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['192', '230', '332', '388']</t>
+          <t>['448']</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>25.45</v>
+        <v>37.36</v>
       </c>
       <c r="E53" t="n">
-        <v>332</v>
+        <v>448</v>
       </c>
       <c r="F53" t="n">
-        <v>39.41</v>
+        <v>37.36</v>
       </c>
       <c r="G53" t="n">
-        <v>13.12</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>38.59</v>
+        <v>113.62</v>
       </c>
       <c r="J53" t="n">
-        <v>6.311197475236268</v>
+        <v>4.597964221217027</v>
       </c>
       <c r="K53" t="n">
-        <v>9.488726468815509</v>
+        <v>3.577441264367593</v>
       </c>
     </row>
     <row r="54">
@@ -2519,23 +2519,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['221', '319', '359', '409', '436', '473']</t>
+          <t>['340', '366']</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>26.13</v>
+        <v>37.37</v>
       </c>
       <c r="E54" t="n">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="F54" t="n">
-        <v>66.34</v>
+        <v>46.28</v>
       </c>
       <c r="G54" t="n">
-        <v>41.16</v>
+        <v>8.91</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2543,13 +2543,13 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>128.77</v>
+        <v>112.69</v>
       </c>
       <c r="J54" t="n">
-        <v>4.10915745125247</v>
+        <v>4.073696864379723</v>
       </c>
       <c r="K54" t="n">
-        <v>2.8335147785039</v>
+        <v>8.178261795760761</v>
       </c>
     </row>
     <row r="55">
@@ -2558,23 +2558,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['311', '477']</t>
+          <t>['124', '185', '88', '98']</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>26.42</v>
+        <v>40.83</v>
       </c>
       <c r="E55" t="n">
-        <v>311</v>
+        <v>88</v>
       </c>
       <c r="F55" t="n">
-        <v>29.95</v>
+        <v>50.26</v>
       </c>
       <c r="G55" t="n">
-        <v>3.53</v>
+        <v>9.82</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2582,13 +2582,13 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>28.34</v>
+        <v>57.56</v>
       </c>
       <c r="J55" t="n">
-        <v>6.186732854113174</v>
+        <v>4.657780469060249</v>
       </c>
       <c r="K55" t="n">
-        <v>11.36341717970435</v>
+        <v>5.659213196196094</v>
       </c>
     </row>
     <row r="56">
@@ -2597,37 +2597,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['114', '154', '189', '19', '21', '234', '243', '253', '2', '303', '36', '41', '421', '42', '487', '49', '56', '63', '7', '97']</t>
+          <t>['151', '197', '420']</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>29.55</v>
+        <v>42.61</v>
       </c>
       <c r="E56" t="n">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="F56" t="n">
-        <v>48.83</v>
+        <v>55.97</v>
       </c>
       <c r="G56" t="n">
-        <v>9.44</v>
+        <v>11.13</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>33.76</v>
+        <v>123.84</v>
       </c>
       <c r="J56" t="n">
-        <v>5.544782822710046</v>
+        <v>4.646189977403253</v>
       </c>
       <c r="K56" t="n">
-        <v>2.913614078768846</v>
+        <v>9.434678902856209</v>
       </c>
     </row>
     <row r="57">
@@ -2636,23 +2636,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['330', '451']</t>
+          <t>['217', '241']</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>30.39</v>
+        <v>43.61</v>
       </c>
       <c r="E57" t="n">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="F57" t="n">
-        <v>31.82</v>
+        <v>50.28</v>
       </c>
       <c r="G57" t="n">
-        <v>1.43</v>
+        <v>6.67</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>123.85</v>
+        <v>134.46</v>
       </c>
       <c r="J57" t="n">
-        <v>4.274463921514197</v>
+        <v>3.760907470278945</v>
       </c>
       <c r="K57" t="n">
-        <v>9.619743967486865</v>
+        <v>2.718029801161129</v>
       </c>
     </row>
     <row r="58">
@@ -2675,37 +2675,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['483']</t>
+          <t>['269']</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>30.69</v>
+        <v>43.86</v>
       </c>
       <c r="E58" t="n">
-        <v>483</v>
+        <v>269</v>
       </c>
       <c r="F58" t="n">
-        <v>30.69</v>
+        <v>43.86</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>52.38</v>
+        <v>134.26</v>
       </c>
       <c r="J58" t="n">
-        <v>6.340586236013717</v>
+        <v>4.257827715765742</v>
       </c>
       <c r="K58" t="n">
-        <v>12.23472602880833</v>
+        <v>4.02330647602193</v>
       </c>
     </row>
     <row r="59">
@@ -2714,37 +2714,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['444']</t>
+          <t>['136', '148']</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>32.45</v>
+        <v>46.42</v>
       </c>
       <c r="E59" t="n">
-        <v>444</v>
+        <v>148</v>
       </c>
       <c r="F59" t="n">
-        <v>32.45</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>19.87</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>61.9</v>
+        <v>134.07</v>
       </c>
       <c r="J59" t="n">
-        <v>5.775700339193787</v>
+        <v>5.760158304584826</v>
       </c>
       <c r="K59" t="n">
-        <v>9.378431105467481</v>
+        <v>3.319306704720127</v>
       </c>
     </row>
     <row r="60">
@@ -2753,23 +2753,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['292', '417']</t>
+          <t>['389', '470']</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>34.09</v>
+        <v>50.27</v>
       </c>
       <c r="E60" t="n">
-        <v>292</v>
+        <v>389</v>
       </c>
       <c r="F60" t="n">
-        <v>45.76</v>
+        <v>53.76</v>
       </c>
       <c r="G60" t="n">
-        <v>11.67</v>
+        <v>3.49</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2777,13 +2777,13 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>119.21</v>
+        <v>151.93</v>
       </c>
       <c r="J60" t="n">
-        <v>5.395117142341937</v>
+        <v>5.793812285181355</v>
       </c>
       <c r="K60" t="n">
-        <v>7.63671513152088</v>
+        <v>11.21042019729859</v>
       </c>
     </row>
     <row r="61">
@@ -2792,23 +2792,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['224', '453']</t>
+          <t>['281']</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>34.33</v>
+        <v>52.96</v>
       </c>
       <c r="E61" t="n">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="F61" t="n">
-        <v>37.35</v>
+        <v>52.96</v>
       </c>
       <c r="G61" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2816,13 +2816,13 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>108.6</v>
+        <v>121.21</v>
       </c>
       <c r="J61" t="n">
-        <v>4.657019150416595</v>
+        <v>5.83222326250235</v>
       </c>
       <c r="K61" t="n">
-        <v>3.057450408428566</v>
+        <v>3.245847963167719</v>
       </c>
     </row>
     <row r="62">
@@ -2831,23 +2831,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['493']</t>
+          <t>['178', '219']</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>36.02</v>
+        <v>54.68</v>
       </c>
       <c r="E62" t="n">
-        <v>493</v>
+        <v>178</v>
       </c>
       <c r="F62" t="n">
-        <v>36.02</v>
+        <v>77.81</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>23.13</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2855,13 +2855,13 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>93.09999999999999</v>
+        <v>123.08</v>
       </c>
       <c r="J62" t="n">
-        <v>6.146539899381926</v>
+        <v>4.756228623004333</v>
       </c>
       <c r="K62" t="n">
-        <v>5.037530545813095</v>
+        <v>8.935363339003066</v>
       </c>
     </row>
     <row r="63">
@@ -2870,20 +2870,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['441']</t>
+          <t>['386']</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>36.75</v>
+        <v>56.64</v>
       </c>
       <c r="E63" t="n">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="F63" t="n">
-        <v>36.75</v>
+        <v>56.64</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>123.15</v>
+        <v>165.47</v>
       </c>
       <c r="J63" t="n">
-        <v>3.849967081756955</v>
+        <v>4.130130326055587</v>
       </c>
       <c r="K63" t="n">
-        <v>4.835575353564455</v>
+        <v>4.178149829769154</v>
       </c>
     </row>
     <row r="64">
@@ -2909,23 +2909,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['402', '416']</t>
+          <t>['396']</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>40.75</v>
+        <v>64.7</v>
       </c>
       <c r="E64" t="n">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="F64" t="n">
-        <v>56.37</v>
+        <v>64.7</v>
       </c>
       <c r="G64" t="n">
-        <v>15.61</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2933,13 +2933,13 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>145.49</v>
+        <v>154.38</v>
       </c>
       <c r="J64" t="n">
-        <v>5.380430481222231</v>
+        <v>4.552911080410258</v>
       </c>
       <c r="K64" t="n">
-        <v>6.377293940222605</v>
+        <v>9.154043587398961</v>
       </c>
     </row>
     <row r="65">
@@ -2948,20 +2948,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['317']</t>
+          <t>['384']</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>41.87</v>
+        <v>68.66</v>
       </c>
       <c r="E65" t="n">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="F65" t="n">
-        <v>41.87</v>
+        <v>68.66</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2972,13 +2972,13 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>118.35</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>6.050781440509676</v>
+        <v>5.437631938816821</v>
       </c>
       <c r="K65" t="n">
-        <v>3.246221649856945</v>
+        <v>3.139276509006498</v>
       </c>
     </row>
     <row r="66">
@@ -2987,37 +2987,37 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['489']</t>
+          <t>['240']</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>42.16</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>489</v>
+        <v>240</v>
       </c>
       <c r="F66" t="n">
-        <v>42.16</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>87.44</v>
+        <v>123.81</v>
       </c>
       <c r="J66" t="n">
-        <v>4.626072414002163</v>
+        <v>4.029130105638591</v>
       </c>
       <c r="K66" t="n">
-        <v>8.42198777011698</v>
+        <v>7.296604347228923</v>
       </c>
     </row>
     <row r="67">
@@ -3026,23 +3026,23 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['337', '367']</t>
+          <t>['203', '303', '57']</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>46.67</v>
+        <v>69.87</v>
       </c>
       <c r="E67" t="n">
-        <v>337</v>
+        <v>57</v>
       </c>
       <c r="F67" t="n">
-        <v>55.27</v>
+        <v>84.03</v>
       </c>
       <c r="G67" t="n">
-        <v>8.6</v>
+        <v>10.31</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>104.33</v>
+        <v>119.55</v>
       </c>
       <c r="J67" t="n">
-        <v>4.199061296946045</v>
+        <v>4.615021807718174</v>
       </c>
       <c r="K67" t="n">
-        <v>7.078431605942097</v>
+        <v>3.092706419950012</v>
       </c>
     </row>
     <row r="68">
@@ -3065,23 +3065,23 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['220', '321', '351', '399', '496', '82']</t>
+          <t>['325']</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>53.45</v>
+        <v>71.12</v>
       </c>
       <c r="E68" t="n">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="F68" t="n">
-        <v>119</v>
+        <v>71.12</v>
       </c>
       <c r="G68" t="n">
-        <v>39.78</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>38.31</v>
+        <v>87.25</v>
       </c>
       <c r="J68" t="n">
-        <v>7.97086013462251</v>
+        <v>4.875720869779152</v>
       </c>
       <c r="K68" t="n">
-        <v>14.23980947906257</v>
+        <v>3.204128274585774</v>
       </c>
     </row>
     <row r="69">
@@ -3104,20 +3104,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['186']</t>
+          <t>['343']</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>53.88</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="F69" t="n">
-        <v>53.88</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -3128,13 +3128,13 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>113.93</v>
+        <v>138.62</v>
       </c>
       <c r="J69" t="n">
-        <v>5.287547560455756</v>
+        <v>4.307003165230568</v>
       </c>
       <c r="K69" t="n">
-        <v>3.655449767128525</v>
+        <v>8.085114594116776</v>
       </c>
     </row>
     <row r="70">
@@ -3143,37 +3143,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['14', '233', '309', '390', '434', '62']</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>61.22</v>
+        <v>75.83</v>
       </c>
       <c r="E70" t="n">
-        <v>53</v>
+        <v>434</v>
       </c>
       <c r="F70" t="n">
-        <v>61.22</v>
+        <v>90.88</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>8.84</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>84.23999999999999</v>
+        <v>96.88</v>
       </c>
       <c r="J70" t="n">
-        <v>5.267247265422613</v>
+        <v>5.266832541519444</v>
       </c>
       <c r="K70" t="n">
-        <v>3.047455660054795</v>
+        <v>9.559833732863767</v>
       </c>
     </row>
     <row r="71">
@@ -3182,37 +3182,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['267', '364', '379', '468']</t>
+          <t>['454']</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>61.73</v>
+        <v>76.67</v>
       </c>
       <c r="E71" t="n">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F71" t="n">
-        <v>70.76000000000001</v>
+        <v>76.67</v>
       </c>
       <c r="G71" t="n">
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>39.93</v>
+        <v>131.53</v>
       </c>
       <c r="J71" t="n">
-        <v>5.64221717347472</v>
+        <v>5.090242975636873</v>
       </c>
       <c r="K71" t="n">
-        <v>3.048370548342179</v>
+        <v>3.164712625184162</v>
       </c>
     </row>
     <row r="72">
@@ -3221,23 +3221,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['109', '142', '161', '184', '190', '262', '26', '334', '368', '38', '3', '5']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>71.23999999999999</v>
+        <v>82.38</v>
       </c>
       <c r="E72" t="n">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="F72" t="n">
-        <v>86.44</v>
+        <v>82.38</v>
       </c>
       <c r="G72" t="n">
-        <v>16.82</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3245,13 +3245,13 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>33.79</v>
+        <v>62.15</v>
       </c>
       <c r="J72" t="n">
-        <v>5.573188341130618</v>
+        <v>4.843286630765837</v>
       </c>
       <c r="K72" t="n">
-        <v>3.037732542538922</v>
+        <v>2.983400241335379</v>
       </c>
     </row>
     <row r="73">
@@ -3260,23 +3260,23 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['433']</t>
+          <t>['10', '146', '249', '61', '69']</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>74.44</v>
+        <v>83.59</v>
       </c>
       <c r="E73" t="n">
-        <v>433</v>
+        <v>249</v>
       </c>
       <c r="F73" t="n">
-        <v>74.44</v>
+        <v>109.76</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>14.28</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3284,13 +3284,13 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>74.89</v>
+        <v>66.81</v>
       </c>
       <c r="J73" t="n">
-        <v>4.097062773176286</v>
+        <v>5.422569495983944</v>
       </c>
       <c r="K73" t="n">
-        <v>6.498937297743376</v>
+        <v>3.107772353310325</v>
       </c>
     </row>
     <row r="74">
@@ -3299,37 +3299,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['350', '425']</t>
+          <t>['342']</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>75.81999999999999</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="F74" t="n">
-        <v>80.90000000000001</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>5.09</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>113.53</v>
+        <v>74.61</v>
       </c>
       <c r="J74" t="n">
-        <v>4.2620305355211</v>
+        <v>5.401386953404483</v>
       </c>
       <c r="K74" t="n">
-        <v>8.055672411412969</v>
+        <v>7.683208249162587</v>
       </c>
     </row>
     <row r="75">
@@ -3338,20 +3338,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['201']</t>
+          <t>['493']</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>81.55</v>
+        <v>89.12</v>
       </c>
       <c r="E75" t="n">
-        <v>201</v>
+        <v>493</v>
       </c>
       <c r="F75" t="n">
-        <v>81.55</v>
+        <v>89.12</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>118.17</v>
+        <v>120.7</v>
       </c>
       <c r="J75" t="n">
-        <v>5.319443129133124</v>
+        <v>3.854572606605277</v>
       </c>
       <c r="K75" t="n">
-        <v>5.536283771628758</v>
+        <v>7.134891449769925</v>
       </c>
     </row>
     <row r="76">
@@ -3377,37 +3377,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['386']</t>
+          <t>['261']</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>86.3</v>
+        <v>94.91</v>
       </c>
       <c r="E76" t="n">
-        <v>386</v>
+        <v>261</v>
       </c>
       <c r="F76" t="n">
-        <v>86.3</v>
+        <v>94.91</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>56.07</v>
+        <v>105.69</v>
       </c>
       <c r="J76" t="n">
-        <v>7.381795662579781</v>
+        <v>6.111958450614734</v>
       </c>
       <c r="K76" t="n">
-        <v>12.35436813438874</v>
+        <v>5.785716550264109</v>
       </c>
     </row>
     <row r="77">
@@ -3416,37 +3416,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['395']</t>
+          <t>['78']</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>89.43000000000001</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="F77" t="n">
-        <v>89.43000000000001</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>80.26000000000001</v>
+        <v>126.19</v>
       </c>
       <c r="J77" t="n">
-        <v>5.995103747123604</v>
+        <v>5.592109499380467</v>
       </c>
       <c r="K77" t="n">
-        <v>3.025898544234421</v>
+        <v>2.989689114272587</v>
       </c>
     </row>
     <row r="78">
@@ -3455,23 +3455,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['52']</t>
+          <t>['105', '491']</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>93.19</v>
+        <v>97.12</v>
       </c>
       <c r="E78" t="n">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F78" t="n">
-        <v>93.19</v>
+        <v>117.84</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>20.72</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3479,13 +3479,13 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>77.63</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="J78" t="n">
-        <v>5.854803619983462</v>
+        <v>5.105513478343876</v>
       </c>
       <c r="K78" t="n">
-        <v>3.087907705874643</v>
+        <v>3.077146892821336</v>
       </c>
     </row>
     <row r="79">
@@ -3494,20 +3494,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['465']</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>94.11</v>
+        <v>97.63</v>
       </c>
       <c r="E79" t="n">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="F79" t="n">
-        <v>94.11</v>
+        <v>97.63</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>130.97</v>
+        <v>139</v>
       </c>
       <c r="J79" t="n">
-        <v>4.699622792071202</v>
+        <v>4.261620418554044</v>
       </c>
       <c r="K79" t="n">
-        <v>2.776485008063251</v>
+        <v>6.134130582242277</v>
       </c>
     </row>
     <row r="80">
@@ -3533,37 +3533,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['283', '479']</t>
+          <t>['443']</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>95.79000000000001</v>
+        <v>98.88</v>
       </c>
       <c r="E80" t="n">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="F80" t="n">
-        <v>99.41</v>
+        <v>98.88</v>
       </c>
       <c r="G80" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>85.98999999999999</v>
+        <v>100.22</v>
       </c>
       <c r="J80" t="n">
-        <v>4.430310490339962</v>
+        <v>4.855646784299447</v>
       </c>
       <c r="K80" t="n">
-        <v>5.93784918973192</v>
+        <v>7.047507431709455</v>
       </c>
     </row>
     <row r="81">
@@ -3572,37 +3572,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['282']</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>95.8</v>
+        <v>100.95</v>
       </c>
       <c r="E81" t="n">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="F81" t="n">
-        <v>95.8</v>
+        <v>100.95</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>107.09</v>
+        <v>80.73</v>
       </c>
       <c r="J81" t="n">
-        <v>5.723503675768074</v>
+        <v>5.139448668120426</v>
       </c>
       <c r="K81" t="n">
-        <v>3.011459612878777</v>
+        <v>2.971942125950638</v>
       </c>
     </row>
     <row r="82">
@@ -3611,20 +3611,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['157']</t>
+          <t>['229']</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>96.08</v>
+        <v>101.17</v>
       </c>
       <c r="E82" t="n">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="F82" t="n">
-        <v>96.08</v>
+        <v>101.17</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>126.7</v>
+        <v>119.63</v>
       </c>
       <c r="J82" t="n">
-        <v>4.859323449592039</v>
+        <v>3.989096084506945</v>
       </c>
       <c r="K82" t="n">
-        <v>6.72367444185097</v>
+        <v>6.852888879881244</v>
       </c>
     </row>
     <row r="83">
@@ -3650,23 +3650,23 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['256', '401']</t>
+          <t>['123', '348', '413', '427', '452']</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>108.62</v>
+        <v>113.31</v>
       </c>
       <c r="E83" t="n">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="F83" t="n">
-        <v>128.81</v>
+        <v>132.4</v>
       </c>
       <c r="G83" t="n">
-        <v>20.19</v>
+        <v>18.25</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3674,13 +3674,13 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>78.23999999999999</v>
+        <v>56.18</v>
       </c>
       <c r="J83" t="n">
-        <v>6.182429578231837</v>
+        <v>5.323898619452113</v>
       </c>
       <c r="K83" t="n">
-        <v>2.599522456144591</v>
+        <v>3.032871411715306</v>
       </c>
     </row>
     <row r="84">
@@ -3689,23 +3689,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['180', '365', '463', '69', '75']</t>
+          <t>['18', '31']</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>115.29</v>
+        <v>117.83</v>
       </c>
       <c r="E84" t="n">
-        <v>463</v>
+        <v>31</v>
       </c>
       <c r="F84" t="n">
-        <v>128.33</v>
+        <v>122.76</v>
       </c>
       <c r="G84" t="n">
-        <v>10.1</v>
+        <v>4.93</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3713,13 +3713,13 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>156.21</v>
+        <v>92.53</v>
       </c>
       <c r="J84" t="n">
-        <v>3.667058435780447</v>
+        <v>5.098251362887445</v>
       </c>
       <c r="K84" t="n">
-        <v>5.274754401865553</v>
+        <v>3.058219253094844</v>
       </c>
     </row>
     <row r="85">
@@ -3728,37 +3728,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['200', '288', '446']</t>
+          <t>['193']</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>118.31</v>
+        <v>123.12</v>
       </c>
       <c r="E85" t="n">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="F85" t="n">
-        <v>129.13</v>
+        <v>123.12</v>
       </c>
       <c r="G85" t="n">
-        <v>13.03</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>76.04000000000001</v>
+        <v>160.04</v>
       </c>
       <c r="J85" t="n">
-        <v>5.842161009875204</v>
+        <v>3.600698044569024</v>
       </c>
       <c r="K85" t="n">
-        <v>4.167975767683878</v>
+        <v>5.226649117742649</v>
       </c>
     </row>
     <row r="86">
@@ -3767,23 +3767,23 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['177']</t>
+          <t>['347', '440']</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>118.77</v>
+        <v>125.52</v>
       </c>
       <c r="E86" t="n">
-        <v>177</v>
+        <v>347</v>
       </c>
       <c r="F86" t="n">
-        <v>118.77</v>
+        <v>134.34</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>166.09</v>
+        <v>124.21</v>
       </c>
       <c r="J86" t="n">
-        <v>3.233328319303224</v>
+        <v>4.281331780687705</v>
       </c>
       <c r="K86" t="n">
-        <v>5.339488552286633</v>
+        <v>2.747045867836943</v>
       </c>
     </row>
     <row r="87">
@@ -3806,20 +3806,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['500']</t>
+          <t>['107']</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>126.04</v>
+        <v>125.78</v>
       </c>
       <c r="E87" t="n">
-        <v>500</v>
+        <v>107</v>
       </c>
       <c r="F87" t="n">
-        <v>126.04</v>
+        <v>125.78</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>121.11</v>
+        <v>133.2</v>
       </c>
       <c r="J87" t="n">
-        <v>3.871520056905348</v>
+        <v>3.645381696652051</v>
       </c>
       <c r="K87" t="n">
-        <v>8.298905048257877</v>
+        <v>8.957255383207519</v>
       </c>
     </row>
     <row r="88">
@@ -3845,37 +3845,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['107', '204', '387']</t>
+          <t>['362']</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>203.46</v>
+        <v>132.77</v>
       </c>
       <c r="E88" t="n">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="F88" t="n">
-        <v>204.25</v>
+        <v>132.77</v>
       </c>
       <c r="G88" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>27.26</v>
+        <v>130.87</v>
       </c>
       <c r="J88" t="n">
-        <v>6.150545759756376</v>
+        <v>4.030274080415051</v>
       </c>
       <c r="K88" t="n">
-        <v>3.002857638983246</v>
+        <v>8.447779826676356</v>
       </c>
     </row>
     <row r="89">
@@ -3884,23 +3884,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['182', '208', '285', '366', '404', '458', '495']</t>
+          <t>['173', '180', '316']</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>283.59</v>
+        <v>137.74</v>
       </c>
       <c r="E89" t="n">
-        <v>404</v>
+        <v>180</v>
       </c>
       <c r="F89" t="n">
-        <v>296.63</v>
+        <v>139.69</v>
       </c>
       <c r="G89" t="n">
-        <v>8.15</v>
+        <v>2.51</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3908,13 +3908,13 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>96.76000000000001</v>
+        <v>131.28</v>
       </c>
       <c r="J89" t="n">
-        <v>7.372431043407315</v>
+        <v>3.75758562844576</v>
       </c>
       <c r="K89" t="n">
-        <v>5.082339913858574</v>
+        <v>8.390433898196209</v>
       </c>
     </row>
     <row r="90">
@@ -3923,37 +3923,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['329', '377', '394', '475']</t>
+          <t>['333']</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>316.71</v>
+        <v>141.15</v>
       </c>
       <c r="E90" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F90" t="n">
-        <v>345.21</v>
+        <v>141.15</v>
       </c>
       <c r="G90" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>103.4</v>
+        <v>38.44</v>
       </c>
       <c r="J90" t="n">
-        <v>6.905089560370283</v>
+        <v>6.453772959142843</v>
       </c>
       <c r="K90" t="n">
-        <v>4.542581975044586</v>
+        <v>2.854379091851675</v>
       </c>
     </row>
     <row r="91">
@@ -3962,23 +3962,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['117', '144', '232', '282', '316']</t>
+          <t>['202', '206', '245', '328']</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>322.41</v>
+        <v>147.46</v>
       </c>
       <c r="E91" t="n">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="F91" t="n">
-        <v>355.12</v>
+        <v>160.77</v>
       </c>
       <c r="G91" t="n">
-        <v>18.55</v>
+        <v>12.07</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3986,13 +3986,13 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>88.97</v>
+        <v>84.39</v>
       </c>
       <c r="J91" t="n">
-        <v>6.740527285133746</v>
+        <v>5.802751611546555</v>
       </c>
       <c r="K91" t="n">
-        <v>6.794702495326781</v>
+        <v>3.04805347722116</v>
       </c>
     </row>
     <row r="92">
@@ -4001,37 +4001,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['100', '113', '138', '244', '462', '61']</t>
+          <t>['349', '402']</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>340.3</v>
+        <v>167.81</v>
       </c>
       <c r="E92" t="n">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="F92" t="n">
-        <v>349.28</v>
+        <v>169.2</v>
       </c>
       <c r="G92" t="n">
-        <v>12.59</v>
+        <v>1.39</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>59.76</v>
+        <v>160.17</v>
       </c>
       <c r="J92" t="n">
-        <v>7.019461328829925</v>
+        <v>3.326515827561987</v>
       </c>
       <c r="K92" t="n">
-        <v>3.406811559214859</v>
+        <v>4.913433117485164</v>
       </c>
     </row>
     <row r="93">
@@ -4040,23 +4040,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['126', '127', '236', '313', '31', '430', '432', '83']</t>
+          <t>['419']</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>358.67</v>
+        <v>173.17</v>
       </c>
       <c r="E93" t="n">
-        <v>127</v>
+        <v>419</v>
       </c>
       <c r="F93" t="n">
-        <v>371.44</v>
+        <v>173.17</v>
       </c>
       <c r="G93" t="n">
-        <v>9.26</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -4064,13 +4064,13 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>106.34</v>
+        <v>168.17</v>
       </c>
       <c r="J93" t="n">
-        <v>6.74181289432158</v>
+        <v>2.890214037692269</v>
       </c>
       <c r="K93" t="n">
-        <v>3.254049938153992</v>
+        <v>6.191433921152679</v>
       </c>
     </row>
     <row r="94">
@@ -4079,37 +4079,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['10', '11', '12', '151', '17', '195', '1', '32', '34', '391', '412', '6', '8', '96', '9']</t>
+          <t>['411']</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>371.45</v>
+        <v>174.53</v>
       </c>
       <c r="E94" t="n">
-        <v>151</v>
+        <v>411</v>
       </c>
       <c r="F94" t="n">
-        <v>401.66</v>
+        <v>174.53</v>
       </c>
       <c r="G94" t="n">
-        <v>20.94</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>103.48</v>
+        <v>16.13</v>
       </c>
       <c r="J94" t="n">
-        <v>6.713561536934334</v>
+        <v>5.606314795998943</v>
       </c>
       <c r="K94" t="n">
-        <v>3.248220128008563</v>
+        <v>3.169644459556941</v>
       </c>
     </row>
     <row r="95">
@@ -4118,23 +4118,23 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['67']</t>
+          <t>['293', '467']</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>402.26</v>
+        <v>177.02</v>
       </c>
       <c r="E95" t="n">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="F95" t="n">
-        <v>402.26</v>
+        <v>180.75</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4142,13 +4142,13 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>82.09999999999999</v>
+        <v>44.36</v>
       </c>
       <c r="J95" t="n">
-        <v>6.728681432221809</v>
+        <v>7.355779410415586</v>
       </c>
       <c r="K95" t="n">
-        <v>3.336251938927871</v>
+        <v>10.4064684691782</v>
       </c>
     </row>
     <row r="96">
@@ -4157,37 +4157,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['145', '223', '27', '28', '47']</t>
+          <t>['232', '33', '351', '39', '428']</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>409.14</v>
+        <v>178.42</v>
       </c>
       <c r="E96" t="n">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="F96" t="n">
-        <v>431.31</v>
+        <v>191.88</v>
       </c>
       <c r="G96" t="n">
-        <v>11.99</v>
+        <v>12.93</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>77.36</v>
+        <v>169.08</v>
       </c>
       <c r="J96" t="n">
-        <v>6.697442865659649</v>
+        <v>3.570707784408107</v>
       </c>
       <c r="K96" t="n">
-        <v>3.234979752641424</v>
+        <v>4.949927373204583</v>
       </c>
     </row>
     <row r="97">
@@ -4196,20 +4196,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>['335']</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>445.52</v>
+        <v>208.05</v>
       </c>
       <c r="E97" t="n">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="F97" t="n">
-        <v>445.52</v>
+        <v>208.05</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -4220,13 +4220,13 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>59.22</v>
+        <v>54.11</v>
       </c>
       <c r="J97" t="n">
-        <v>6.822106189230928</v>
+        <v>6.238506110423861</v>
       </c>
       <c r="K97" t="n">
-        <v>3.230140709009437</v>
+        <v>4.362481518585495</v>
       </c>
     </row>
     <row r="98">
@@ -4235,37 +4235,37 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['363', '497']</t>
+          <t>['367']</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1978.06</v>
+        <v>210.88</v>
       </c>
       <c r="E98" t="n">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="F98" t="n">
-        <v>3924.27</v>
+        <v>210.88</v>
       </c>
       <c r="G98" t="n">
-        <v>1946.2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>33.15</v>
+        <v>114.24</v>
       </c>
       <c r="J98" t="n">
-        <v>2.756855540173939</v>
+        <v>3.16571419223828</v>
       </c>
       <c r="K98" t="n">
-        <v>8.899054556524534</v>
+        <v>5.689198449693947</v>
       </c>
     </row>
     <row r="99">
@@ -4274,37 +4274,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['299']</t>
+          <t>['265']</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5066.5</v>
+        <v>219.63</v>
       </c>
       <c r="E99" t="n">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F99" t="n">
-        <v>5066.5</v>
+        <v>219.63</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>52.86</v>
+        <v>121.35</v>
       </c>
       <c r="J99" t="n">
-        <v>2.489910841777272</v>
+        <v>2.893975339443329</v>
       </c>
       <c r="K99" t="n">
-        <v>8.118101071063359</v>
+        <v>6.098451114832359</v>
       </c>
     </row>
     <row r="100">
@@ -4313,37 +4313,700 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['218', '312']</t>
+          <t>['103', '215', '251', '291', '355', '376']</t>
         </is>
       </c>
       <c r="C100" t="n">
+        <v>6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>241.34</v>
+      </c>
+      <c r="E100" t="n">
+        <v>355</v>
+      </c>
+      <c r="F100" t="n">
+        <v>262.9</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>98.63</v>
+      </c>
+      <c r="J100" t="n">
+        <v>6.420679080684755</v>
+      </c>
+      <c r="K100" t="n">
+        <v>7.237919659681228</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>['262']</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>286.85</v>
+      </c>
+      <c r="E101" t="n">
+        <v>262</v>
+      </c>
+      <c r="F101" t="n">
+        <v>286.85</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>110.56</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.815177300825567</v>
+      </c>
+      <c r="K101" t="n">
+        <v>8.382054700370313</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>['131', '134', '183', '286', '288', '383', '462', '465']</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>312.11</v>
+      </c>
+      <c r="E102" t="n">
+        <v>131</v>
+      </c>
+      <c r="F102" t="n">
+        <v>320.36</v>
+      </c>
+      <c r="G102" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>89.43000000000001</v>
+      </c>
+      <c r="J102" t="n">
+        <v>6.925360230813311</v>
+      </c>
+      <c r="K102" t="n">
+        <v>5.302266402209534</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>['200', '201', '29', '55']</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>349.25</v>
+      </c>
+      <c r="E103" t="n">
+        <v>201</v>
+      </c>
+      <c r="F103" t="n">
+        <v>379.53</v>
+      </c>
+      <c r="G103" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="J103" t="n">
+        <v>6.920082702702687</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3.542221619266645</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>365.87</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>365.87</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>67.81</v>
+      </c>
+      <c r="J104" t="n">
+        <v>6.7137161490945</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3.256675144990671</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>['15', '296', '401', '442', '477']</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>366.93</v>
+      </c>
+      <c r="E105" t="n">
+        <v>401</v>
+      </c>
+      <c r="F105" t="n">
+        <v>390.96</v>
+      </c>
+      <c r="G105" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>104.53</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6.474553948862791</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3.328054837288596</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>['161', '352', '35']</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>396.37</v>
+      </c>
+      <c r="E106" t="n">
+        <v>35</v>
+      </c>
+      <c r="F106" t="n">
+        <v>411.07</v>
+      </c>
+      <c r="G106" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>104.88</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6.433507374897239</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3.31246267903504</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>['104', '128', '158', '16', '179', '186', '2', '405', '44']</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>406.28</v>
+      </c>
+      <c r="E107" t="n">
+        <v>44</v>
+      </c>
+      <c r="F107" t="n">
+        <v>421.67</v>
+      </c>
+      <c r="G107" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>79.55</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6.415235857085909</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3.32689885629245</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>['13', '42', '64']</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>411.99</v>
+      </c>
+      <c r="E108" t="n">
+        <v>64</v>
+      </c>
+      <c r="F108" t="n">
+        <v>432.02</v>
+      </c>
+      <c r="G108" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>42.55</v>
+      </c>
+      <c r="J108" t="n">
+        <v>6.498129113798201</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2.975904064313906</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>['101']</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>443.15</v>
+      </c>
+      <c r="E109" t="n">
+        <v>101</v>
+      </c>
+      <c r="F109" t="n">
+        <v>443.15</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>119.99</v>
+      </c>
+      <c r="J109" t="n">
+        <v>6.305467395969356</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2.808578644083158</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>['237', '476']</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>2</v>
       </c>
-      <c r="D100" t="n">
-        <v>8092.5</v>
-      </c>
-      <c r="E100" t="n">
+      <c r="D110" t="n">
+        <v>1876.74</v>
+      </c>
+      <c r="E110" t="n">
+        <v>476</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1883.9</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.571637716733291</v>
+      </c>
+      <c r="K110" t="n">
+        <v>6.624112544333773</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>['258']</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2475.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>258</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2475.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>71.23</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7.096215021590963</v>
+      </c>
+      <c r="K111" t="n">
+        <v>5.462717089507749</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>['292']</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3319</v>
+      </c>
+      <c r="E112" t="n">
+        <v>292</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3319</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.050776005440326</v>
+      </c>
+      <c r="K112" t="n">
+        <v>7.702050960620811</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3978.67</v>
+      </c>
+      <c r="E113" t="n">
+        <v>89</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3978.67</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>147.91</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.79497037096802</v>
+      </c>
+      <c r="K113" t="n">
+        <v>8.96042839377672</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>['117', '187', '188', '339']</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4040.28</v>
+      </c>
+      <c r="E114" t="n">
+        <v>339</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5395.06</v>
+      </c>
+      <c r="G114" t="n">
+        <v>782.1799999999999</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>44.69</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.228024053656847</v>
+      </c>
+      <c r="K114" t="n">
+        <v>8.942701828865818</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>['250']</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4167.34</v>
+      </c>
+      <c r="E115" t="n">
+        <v>250</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4167.34</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.102160618341536</v>
+      </c>
+      <c r="K115" t="n">
+        <v>8.951274490261151</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>['218', '326', '346', '414', '461', '480']</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>6</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5343.16</v>
+      </c>
+      <c r="E116" t="n">
         <v>218</v>
       </c>
-      <c r="F100" t="n">
-        <v>9194.74</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1102.24</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="F116" t="n">
+        <v>6392.52</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1155.64</v>
+      </c>
+      <c r="H116" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="I100" t="n">
-        <v>39.93</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.930348858182303</v>
-      </c>
-      <c r="K100" t="n">
-        <v>9.372195527196389</v>
+      <c r="I116" t="n">
+        <v>47.95</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.63085971049893</v>
+      </c>
+      <c r="K116" t="n">
+        <v>7.727613861988705</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>['138']</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5989.16</v>
+      </c>
+      <c r="E117" t="n">
+        <v>138</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5989.16</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.741671786601849</v>
+      </c>
+      <c r="K117" t="n">
+        <v>9.01895415222852</v>
       </c>
     </row>
   </sheetData>
